--- a/Document/자원시스템_강일구.xlsx
+++ b/Document/자원시스템_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="시스템 " sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>자원 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +121,30 @@
   </si>
   <si>
     <t>카메라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 자원 소모 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김밥 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 맛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀떡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,108 +604,158 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/자원시스템_강일구.xlsx
+++ b/Document/자원시스템_강일구.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="시스템 " sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="UI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>자원 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2. 자원이 사용 되는 시스템 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,23 +124,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">김밥 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 맛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀떡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동</t>
+    <t xml:space="preserve"> - 지속 감소의 경우 스킬을 사용 하는 동안 n 값 만큼 자원이 지속적으로 감소한다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용이 종료 되면 자원 감소를 중지 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - UI 지속적으로 감소되고 있는 값을 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - UI의 감소 값은 3초 마다 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 시 자원 감소 값을 만족하지 못하는 경우 스킬이 작동하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 중 감소 자원을 만족하지 못하는 경우 스킬이 자동으로 해제 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼입력 직 후 자원이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하면 스킬을 사용 할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하는 경우 UI로 사용 불가함을 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 감소 된 자원을 자원창 UI에 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1 지속감소 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 일반감소 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 자원이 사용 되는 시스템 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 자원 UI </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 바 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +231,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -231,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +312,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,6 +336,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="628650"/>
+          <a:ext cx="4410075" cy="1475705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,154 +707,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T33"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5" t="s">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="R30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="R31" t="s">
-        <v>26</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="R32" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="18:19" x14ac:dyDescent="0.3">
-      <c r="R33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -749,13 +881,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/자원시스템_강일구.xlsx
+++ b/Document/자원시스템_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>자원 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,7 +196,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">체력 바 </t>
+    <t xml:space="preserve">자원 바 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 자원의 획득 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 자원은 필드에 흩어져 있는 자원 오브젝트와 충돌 할 시 획득 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트의 크기는 보유하고 있는 자원의 값에 따라 결정 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 자원 크기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1단계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 형태적으로 자원의 크기를 표현 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 자원의 양이 기준을 초과 할수록자원의 크기가 커짐 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2단계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3단계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기별 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수치 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 자원이 뭉쳐져 있는 이미지 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +380,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
@@ -339,6 +405,957 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>73770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="순서도: 판단 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6732936" y="6809181"/>
+          <a:ext cx="1162053" cy="778575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41121</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>92817</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="그룹 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8305801" y="6531717"/>
+          <a:ext cx="1355570" cy="1266825"/>
+          <a:chOff x="3511515" y="1606530"/>
+          <a:chExt cx="3597853" cy="3362313"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="순서도: 판단 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2956734" y="2161311"/>
+            <a:ext cx="3362312" cy="2252749"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="순서도: 판단 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4301838" y="2161312"/>
+            <a:ext cx="3362312" cy="2252749"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114391</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="그룹 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9915526" y="6534150"/>
+          <a:ext cx="1142999" cy="1285966"/>
+          <a:chOff x="6241428" y="-767273"/>
+          <a:chExt cx="4824143" cy="5427550"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="순서도: 판단 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6972342" y="-212491"/>
+            <a:ext cx="3362312" cy="2252748"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="순서도: 판단 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5686647" y="1774935"/>
+            <a:ext cx="3362311" cy="2252750"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="순서도: 판단 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8258041" y="1852747"/>
+            <a:ext cx="3362310" cy="2252750"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -382,6 +1399,952 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="순서도: 판단 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="494061" y="5011389"/>
+          <a:ext cx="1162053" cy="778575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1431771</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2133601" y="4752975"/>
+          <a:ext cx="1355570" cy="1266825"/>
+          <a:chOff x="3511515" y="1606530"/>
+          <a:chExt cx="3597853" cy="3362313"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="순서도: 판단 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2956734" y="2161311"/>
+            <a:ext cx="3362312" cy="2252749"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="순서도: 판단 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4301838" y="2161312"/>
+            <a:ext cx="3362312" cy="2252749"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2209801</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4267201" y="4698258"/>
+          <a:ext cx="1142999" cy="1285965"/>
+          <a:chOff x="6241428" y="-767273"/>
+          <a:chExt cx="4824141" cy="5427549"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="순서도: 판단 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6972342" y="-212491"/>
+            <a:ext cx="3362312" cy="2252748"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="순서도: 판단 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5686647" y="1774935"/>
+            <a:ext cx="3362311" cy="2252750"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="순서도: 판단 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8258039" y="1852747"/>
+            <a:ext cx="3362311" cy="2252748"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -707,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N28"/>
+  <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,6 +2681,7 @@
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
@@ -804,37 +2768,37 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
@@ -848,7 +2812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
@@ -860,7 +2824,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
@@ -871,20 +2835,91 @@
         <v>21</v>
       </c>
       <c r="E28" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="4">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4">
+        <v>20</v>
+      </c>
+      <c r="J45" s="4">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,9 +2964,31 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="8"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/자원시스템_강일구.xlsx
+++ b/Document/자원시스템_강일구.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>자원 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 자원 소모 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 지속 감소의 경우 스킬을 사용 하는 동안 n 값 만큼 자원이 지속적으로 감소한다.  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,18 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.1 지속감소 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2 일반감소 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 자원이 사용 되는 시스템 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4. 자원의 획득 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 자원은 필드에 흩어져 있는 자원 오브젝트와 충돌 할 시 획득 할 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,6 +237,42 @@
   </si>
   <si>
     <t xml:space="preserve"> - 자원이 뭉쳐져 있는 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 표기하는 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 보유하고 있는 자원의 양을 표기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 자원 표기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 자원 소모 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 지속감소 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 일반감소 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 자원이 사용 되는 시스템 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 자원의 획득 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,13 +426,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>169017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>340425</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>73770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -571,13 +587,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>83292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>41121</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>92817</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -587,7 +603,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8305801" y="6531717"/>
+          <a:off x="8305801" y="9046317"/>
           <a:ext cx="1355570" cy="1266825"/>
           <a:chOff x="3511515" y="1606530"/>
           <a:chExt cx="3597853" cy="3362313"/>
@@ -892,13 +908,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114391</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -908,7 +924,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9915526" y="6534150"/>
+          <a:off x="9915526" y="9048750"/>
           <a:ext cx="1142999" cy="1285966"/>
           <a:chOff x="6241428" y="-767273"/>
           <a:chExt cx="4824143" cy="5427550"/>
@@ -1350,6 +1366,130 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="2438400"/>
+          <a:ext cx="1028700" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>폐기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="5619751"/>
+          <a:ext cx="5353050" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>폐기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2670,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2684,225 +2824,230 @@
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="N23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="N25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>2</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="4">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="I57" s="4">
         <v>20</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>2</v>
-      </c>
-      <c r="J44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="4">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4">
-        <v>20</v>
-      </c>
-      <c r="J45" s="4">
+      <c r="J57" s="4">
         <v>30</v>
       </c>
     </row>
@@ -2918,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2929,29 +3074,33 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -2959,35 +3108,37 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
